--- a/wetlands/src/VIBI-woody/HTLN_CUVA_VIBIFieldDataform_083023QA.xlsx
+++ b/wetlands/src/VIBI-woody/HTLN_CUVA_VIBIFieldDataform_083023QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRowell\HTLN-Data-Capture-Scripts\wetlands\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRowell\HTLN-Data-Capture-Scripts\wetlands\src\VIBI-woody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A3C4F-E227-4B6A-AC78-3FC4CB10CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B47B9-DA86-4569-90C4-8D5EB2A6BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55178,7 +55178,7 @@
   <dimension ref="A1:AB281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
